--- a/tut06/output/2001ME10.xlsx
+++ b/tut06/output/2001ME10.xlsx
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -581,7 +581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
